--- a/hobby/sample.xlsx
+++ b/hobby/sample.xlsx
@@ -19,9 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>진황도로 53-7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청와대로 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +67,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -65,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -347,20 +385,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="23.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/hobby/sample.xlsx
+++ b/hobby/sample.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716ECDF8-CEE3-BB4C-900C-DC3A0933D108}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +108,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,21 +385,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="23.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" customWidth="1"/>
+    <col min="2" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>

--- a/hobby/sample.xlsx
+++ b/hobby/sample.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716ECDF8-CEE3-BB4C-900C-DC3A0933D108}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,28 +36,12 @@
     <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청와대로 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1234-1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +91,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,21 +368,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="3" width="23.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,20 +396,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
